--- a/Database_backup/WorkType-2020-08-06.xlsx
+++ b/Database_backup/WorkType-2020-08-06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Database_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Database_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -423,12 +423,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -452,7 +452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -460,7 +460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -476,7 +476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -484,7 +484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -508,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -516,7 +516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>

--- a/Database_backup/WorkType-2020-08-06.xlsx
+++ b/Database_backup/WorkType-2020-08-06.xlsx
@@ -423,7 +423,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
